--- a/BMS PCB/Testing/LTO BMS Testing/Testing Data/CV Measurement Accuracy Tests/CV Measurement Data All VBAT.xlsx
+++ b/BMS PCB/Testing/LTO BMS Testing/Testing Data/CV Measurement Accuracy Tests/CV Measurement Data All VBAT.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\custom-escooter\BMS PCB\Testing\LTO BMS Testing\Testing Data\CV Measurement Accuracy Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7E928E-707F-4AB1-B0FE-A075B76E0CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BF98ED-3B5B-44EF-9AA2-D741134CD70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30V Battery" sheetId="1" r:id="rId1"/>
     <sheet name="35V Battery" sheetId="2" r:id="rId2"/>
     <sheet name="40V Battery" sheetId="3" r:id="rId3"/>
     <sheet name="45V Battery" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
   <si>
     <t>Cell #</t>
   </si>
@@ -52,14 +53,73 @@
   <si>
     <t>Error (%)</t>
   </si>
+  <si>
+    <t>CV1</t>
+  </si>
+  <si>
+    <t>CV2</t>
+  </si>
+  <si>
+    <t>CV3</t>
+  </si>
+  <si>
+    <t>CV4</t>
+  </si>
+  <si>
+    <t>CV5</t>
+  </si>
+  <si>
+    <t>CV6</t>
+  </si>
+  <si>
+    <t>CV7</t>
+  </si>
+  <si>
+    <t>CV8</t>
+  </si>
+  <si>
+    <t>CV9</t>
+  </si>
+  <si>
+    <t>CV10</t>
+  </si>
+  <si>
+    <t>CV11</t>
+  </si>
+  <si>
+    <t>CV12</t>
+  </si>
+  <si>
+    <t>CV13</t>
+  </si>
+  <si>
+    <t>CV14</t>
+  </si>
+  <si>
+    <t>CV15</t>
+  </si>
+  <si>
+    <t>CV16</t>
+  </si>
+  <si>
+    <t>PSU Voltage</t>
+  </si>
+  <si>
+    <t>Abs. Error (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -101,6 +161,1612 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Cell Voltage Measurement Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>30V Battery</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>CV1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CV3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CV4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CV5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CV6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CV7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CV8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CV9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CV10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CV11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CV12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CV13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CV14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CV16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.5238632315290093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25648343257138373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62935782796852924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25160284653719661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25439396874603709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21817149472361316</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6254723827057663E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4801112282521499E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11573478022988426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34216274744801523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4102371879673633</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0131128714620918E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.3690325850534383E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12195249839423442</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11254602033477065</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4818785921162902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1F8-4E33-94B9-26964F847C73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>35V Battery</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$18:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>CV1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CV3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CV4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CV5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CV6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CV7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CV8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CV9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CV10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CV11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CV12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CV13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CV14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CV16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.80307303944725295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3135570780705037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6135786848478394</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38923963690397922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53289358384800345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28973045076043924</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50304601508637226</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21407852781427175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56088035914363377</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37192091115988685</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70196973274302865</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5972143781260932E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44498070241925031</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5044866064478537</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1511201162796851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1F8-4E33-94B9-26964F847C73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>40V Battery</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$34:$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>CV1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CV3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CV4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CV5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CV6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CV7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CV8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CV9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CV10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CV11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CV12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CV13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CV14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CV16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$34:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.20401079975951028</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57023409908457634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59043727421740777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73475709565717917</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57852671823592883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33742791300027986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47890831124256439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29511466812059906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28008690310946988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31136437453300497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45010701458167829</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49560819788137733</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28283017070242378</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17202111007360354</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48919868333327315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6382370383737701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1F8-4E33-94B9-26964F847C73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>45V Battery</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$50:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>CV1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CV2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CV3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CV4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CV5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CV6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CV7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CV8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CV9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CV10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CV11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CV12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CV13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>CV14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CV16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$50:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.13431707197365622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7955045600659334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75639819856462809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67606121179672019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44529803261748813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46504960969339626</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58222707950257657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41121770879376279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35603492362915101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44178617582407059</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48614659095276147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.640193184769698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33795379599367681</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55722008148618751</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51626959149894824</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5179863617342795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A1F8-4E33-94B9-26964F847C73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="505016575"/>
+        <c:axId val="446916831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="505016575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Cell Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446916831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="446916831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Absolute</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Error (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="505016575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE809E3-FE67-C4E8-F4D8-ADE3A1DC7070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2913,62 +4579,32 @@
         <v>1921.7986900000001</v>
       </c>
       <c r="E138">
-        <f t="shared" ref="E138:E155" si="3">(C138-D138)/D138*100</f>
+        <f t="shared" ref="E138:E158" si="3">(C138-D138)/D138*100</f>
         <v>-0.77004371357959855</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>1944</v>
-      </c>
-      <c r="D139">
-        <v>1940.33059</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="3"/>
-        <v>0.18911261920578032</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B140">
-        <v>1</v>
-      </c>
-      <c r="C140">
-        <v>1942</v>
-      </c>
-      <c r="D140">
-        <v>1940.5918200000001</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="3"/>
-        <v>7.2564461288922771E-2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141">
-        <v>1943</v>
-      </c>
-      <c r="D141">
-        <v>1939.4492</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="3"/>
-        <v>0.18308290828138118</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -2976,17 +4612,17 @@
         <v>15</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="D142">
-        <v>1939.82161</v>
+        <v>1940.33059</v>
       </c>
       <c r="E142">
         <f t="shared" si="3"/>
-        <v>-4.2354925616070661E-2</v>
+        <v>0.18911261920578032</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -2994,17 +4630,17 @@
         <v>15</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D143">
-        <v>1941.01313</v>
+        <v>1940.5918200000001</v>
       </c>
       <c r="E143">
         <f t="shared" si="3"/>
-        <v>0.10236252240086359</v>
+        <v>7.2564461288922771E-2</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -3012,17 +4648,17 @@
         <v>15</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C144">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="D144">
-        <v>1969.5778399999999</v>
+        <v>1939.4492</v>
       </c>
       <c r="E144">
         <f t="shared" si="3"/>
-        <v>-1.4509627098566424</v>
+        <v>0.18308290828138118</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -3030,17 +4666,17 @@
         <v>15</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C145">
-        <v>1946</v>
+        <v>1939</v>
       </c>
       <c r="D145">
-        <v>1942.57214</v>
+        <v>1939.82161</v>
       </c>
       <c r="E145">
         <f t="shared" si="3"/>
-        <v>0.17645985595160496</v>
+        <v>-4.2354925616070661E-2</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -3048,17 +4684,17 @@
         <v>15</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="D146">
-        <v>1947.5776499999999</v>
+        <v>1941.01313</v>
       </c>
       <c r="E146">
         <f t="shared" si="3"/>
-        <v>-0.28638909467871276</v>
+        <v>0.10236252240086359</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -3066,17 +4702,17 @@
         <v>15</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="D147">
-        <v>1942.53719</v>
+        <v>1969.5778399999999</v>
       </c>
       <c r="E147">
         <f t="shared" si="3"/>
-        <v>-0.13061217118834206</v>
+        <v>-1.4509627098566424</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -3084,71 +4720,71 @@
         <v>15</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C148">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="D148">
-        <v>1941.8101300000001</v>
+        <v>1942.57214</v>
       </c>
       <c r="E148">
         <f t="shared" si="3"/>
-        <v>6.1276330863508678E-2</v>
+        <v>0.17645985595160496</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C149">
-        <v>2043</v>
+        <v>1942</v>
       </c>
       <c r="D149">
-        <v>1932.7734499999999</v>
+        <v>1947.5776499999999</v>
       </c>
       <c r="E149">
         <f t="shared" si="3"/>
-        <v>5.7030248423580163</v>
+        <v>-0.28638909467871276</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C150">
-        <v>2038</v>
+        <v>1940</v>
       </c>
       <c r="D150">
-        <v>1932.6702399999999</v>
+        <v>1942.53719</v>
       </c>
       <c r="E150">
         <f t="shared" si="3"/>
-        <v>5.4499602580934905</v>
+        <v>-0.13061217118834206</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C151">
-        <v>2041</v>
+        <v>1943</v>
       </c>
       <c r="D151">
-        <v>1930.33646</v>
+        <v>1941.8101300000001</v>
       </c>
       <c r="E151">
         <f t="shared" si="3"/>
-        <v>5.7328627569931516</v>
+        <v>6.1276330863508678E-2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3156,17 +4792,17 @@
         <v>16</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="D152">
-        <v>1936.8166900000001</v>
+        <v>1932.7734499999999</v>
       </c>
       <c r="E152">
         <f t="shared" si="3"/>
-        <v>5.3791001770022895</v>
+        <v>5.7030248423580163</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -3174,17 +4810,17 @@
         <v>16</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>2038</v>
       </c>
       <c r="D153">
-        <v>1935.92509</v>
+        <v>1932.6702399999999</v>
       </c>
       <c r="E153">
         <f t="shared" si="3"/>
-        <v>5.2726683758202668</v>
+        <v>5.4499602580934905</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -3192,17 +4828,17 @@
         <v>16</v>
       </c>
       <c r="B154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C154">
         <v>2041</v>
       </c>
       <c r="D154">
-        <v>1934.7019600000001</v>
+        <v>1930.33646</v>
       </c>
       <c r="E154">
         <f t="shared" si="3"/>
-        <v>5.4942850215544254</v>
+        <v>5.7328627569931516</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3210,15 +4846,69 @@
         <v>16</v>
       </c>
       <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>2041</v>
+      </c>
+      <c r="D155">
+        <v>1936.8166900000001</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="3"/>
+        <v>5.3791001770022895</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>16</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>2038</v>
+      </c>
+      <c r="D156">
+        <v>1935.92509</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="3"/>
+        <v>5.2726683758202668</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>2041</v>
+      </c>
+      <c r="D157">
+        <v>1934.7019600000001</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="3"/>
+        <v>5.4942850215544254</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>16</v>
+      </c>
+      <c r="B158">
         <v>6</v>
       </c>
-      <c r="C155">
+      <c r="C158">
         <v>2039</v>
       </c>
-      <c r="D155">
+      <c r="D158">
         <v>1935.6140399999999</v>
       </c>
-      <c r="E155">
+      <c r="E158">
         <f t="shared" si="3"/>
         <v>5.3412487129923933</v>
       </c>
@@ -3235,10 +4925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC015788-6137-46A0-81AF-59B47E04816F}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E135"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3298,7 +4988,7 @@
         <v>2174.5092599999998</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">(C3-D3)/D3*100</f>
+        <f t="shared" ref="E3:E88" si="0">(C3-D3)/D3*100</f>
         <v>0.62040388827777115</v>
       </c>
     </row>
@@ -3736,1944 +5426,2110 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>2213</v>
-      </c>
-      <c r="D28">
-        <v>2223.3102199999998</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>-0.46373285685700871</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>2212</v>
-      </c>
-      <c r="D29">
-        <v>2218.3236499999998</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>-0.28506435478879816</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>2212</v>
-      </c>
-      <c r="D30">
-        <v>2219.52223</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>-0.3389121270481727</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>2210</v>
-      </c>
-      <c r="D31">
-        <v>2220.4193</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>-0.46924920892193744</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2128</v>
+        <v>2213</v>
       </c>
       <c r="D32">
-        <v>2138.6991899999998</v>
+        <v>2223.3102199999998</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-0.50026623893750188</v>
+        <v>-0.46373285685700871</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>2128</v>
+        <v>2212</v>
       </c>
       <c r="D33">
-        <v>2139.0408699999998</v>
+        <v>2218.3236499999998</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-0.51615984317306729</v>
+        <v>-0.28506435478879816</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>2129</v>
+        <v>2212</v>
       </c>
       <c r="D34">
-        <v>2138.8750399999999</v>
+        <v>2219.52223</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-0.46169317119152031</v>
+        <v>-0.3389121270481727</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>2127</v>
+        <v>2210</v>
       </c>
       <c r="D35">
-        <v>2138.7114900000001</v>
+        <v>2220.4193</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-0.54759559925495793</v>
+        <v>-0.46924920892193744</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
-      <c r="C36">
-        <v>2126</v>
-      </c>
-      <c r="D36">
-        <v>2138.8727600000002</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>-0.60184786307719385</v>
-      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>2128</v>
-      </c>
-      <c r="D37">
-        <v>2138.50207</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>-0.49109468479495105</v>
-      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
-      <c r="C38">
-        <v>2126</v>
-      </c>
-      <c r="D38">
-        <v>2138.5049399999998</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>-0.58475151336334097</v>
-      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>7</v>
       </c>
-      <c r="C39">
-        <v>2127</v>
-      </c>
-      <c r="D39">
-        <v>2138.45516</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>-0.53567454741487208</v>
-      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>8</v>
       </c>
-      <c r="C40">
-        <v>2127</v>
-      </c>
-      <c r="D40">
-        <v>2138.4285</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>-0.53443451581383183</v>
-      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>9</v>
       </c>
-      <c r="C41">
-        <v>2127</v>
-      </c>
-      <c r="D41">
-        <v>2138.8797199999999</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>-0.55541786145879701</v>
-      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2077</v>
+        <v>2128</v>
       </c>
       <c r="D42">
-        <v>2085.4552100000001</v>
+        <v>2138.6991899999998</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-0.40543714194658148</v>
+        <v>-0.50026623893750188</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>2077</v>
+        <v>2128</v>
       </c>
       <c r="D43">
-        <v>2063.6621</v>
+        <v>2139.0408699999998</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>0.64632189543045782</v>
+        <v>-0.51615984317306729</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>2077</v>
+        <v>2129</v>
       </c>
       <c r="D44">
-        <v>2085.5673400000001</v>
+        <v>2138.8750399999999</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-0.4107918184027593</v>
+        <v>-0.46169317119152031</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2076</v>
+        <v>2127</v>
       </c>
       <c r="D45">
-        <v>2085.6008099999999</v>
+        <v>2138.7114900000001</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-0.46033785343609979</v>
+        <v>-0.54759559925495793</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>2077</v>
+        <v>2126</v>
       </c>
       <c r="D46">
-        <v>2085.4196200000001</v>
+        <v>2138.8727600000002</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-0.40373745021158486</v>
+        <v>-0.60184786307719385</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
       <c r="C47">
-        <v>2075</v>
+        <v>2128</v>
       </c>
       <c r="D47">
-        <v>2085.2154999999998</v>
+        <v>2138.50207</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-0.48990140347603373</v>
+        <v>-0.49109468479495105</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>2078</v>
+        <v>2126</v>
       </c>
       <c r="D48">
-        <v>2085.2586099999999</v>
+        <v>2138.5049399999998</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-0.34809159713767412</v>
+        <v>-0.58475151336334097</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
         <v>7</v>
       </c>
       <c r="C49">
-        <v>2076</v>
+        <v>2127</v>
       </c>
       <c r="D49">
-        <v>2085.2976800000001</v>
+        <v>2138.45516</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-0.44586823690323807</v>
+        <v>-0.53567454741487208</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
         <v>8</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
       <c r="C50">
-        <v>2228</v>
+        <v>2127</v>
       </c>
       <c r="D50">
-        <v>2237.08034</v>
+        <v>2138.4285</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-0.40590138126197017</v>
+        <v>-0.53443451581383183</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>2225</v>
+        <v>2127</v>
       </c>
       <c r="D51">
-        <v>2237.1645699999999</v>
+        <v>2138.8797199999999</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-0.54374944798986846</v>
+        <v>-0.55541786145879701</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>2226</v>
+        <v>2077</v>
       </c>
       <c r="D52">
-        <v>2237.01719</v>
+        <v>2085.4552100000001</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>-0.49249465087928218</v>
+        <v>-0.40543714194658148</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>2227</v>
+        <v>2077</v>
       </c>
       <c r="D53">
-        <v>2236.89194</v>
+        <v>2063.6621</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-0.44221805368032119</v>
+        <v>0.64632189543045782</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>2225</v>
+        <v>2077</v>
       </c>
       <c r="D54">
-        <v>2236.9279499999998</v>
+        <v>2085.5673400000001</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-0.53322906533488412</v>
+        <v>-0.4107918184027593</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>2226</v>
+        <v>2076</v>
       </c>
       <c r="D55">
-        <v>2236.91005</v>
+        <v>2085.6008099999999</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-0.48772859686512454</v>
+        <v>-0.46033785343609979</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>2227</v>
+        <v>2077</v>
       </c>
       <c r="D56">
-        <v>2237.4102800000001</v>
+        <v>2085.4196200000001</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>-0.46528256766568793</v>
+        <v>-0.40373745021158486</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>2225</v>
+        <v>2075</v>
       </c>
       <c r="D57">
-        <v>2237.45181</v>
+        <v>2085.2154999999998</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-0.55651746081628561</v>
+        <v>-0.48990140347603373</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>2226</v>
+        <v>2078</v>
       </c>
       <c r="D58">
-        <v>2237.8469100000002</v>
+        <v>2085.2586099999999</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-0.52938875966275123</v>
+        <v>-0.34809159713767412</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>2225</v>
+        <v>2076</v>
       </c>
       <c r="D59">
-        <v>2237.84411</v>
+        <v>2085.2976800000001</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-0.57395016670754606</v>
+        <v>-0.44586823690323807</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>2249</v>
-      </c>
-      <c r="D60">
-        <v>2250.9765600000001</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>-8.7808999663686549E-2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
         <v>9</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>2246</v>
-      </c>
-      <c r="D61">
-        <v>2251.5275000000001</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>-0.24549999944482778</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>2</v>
-      </c>
-      <c r="C62">
-        <v>2247</v>
-      </c>
-      <c r="D62">
-        <v>2260.2973699999998</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>-0.5883017949978756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63">
-        <v>2248</v>
-      </c>
-      <c r="D63">
-        <v>2251.3372599999998</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>-0.14823456526454806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>4</v>
-      </c>
-      <c r="C64">
-        <v>2246</v>
-      </c>
-      <c r="D64">
-        <v>2251.5301599999998</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>-0.2456178512838485</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>5</v>
-      </c>
-      <c r="C65">
-        <v>2247</v>
-      </c>
-      <c r="D65">
-        <v>2251.4725100000001</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>-0.19864821711725258</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>6</v>
-      </c>
-      <c r="C66">
-        <v>2249</v>
-      </c>
-      <c r="D66">
-        <v>2251.1824499999998</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>-9.6946828987574507E-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>7</v>
-      </c>
-      <c r="C67">
-        <v>2247</v>
-      </c>
-      <c r="D67">
-        <v>2251.0229300000001</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E130" si="1">(C67-D67)/D67*100</f>
-        <v>-0.17871563840533988</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68">
-        <v>8</v>
-      </c>
-      <c r="C68">
-        <v>2248</v>
-      </c>
-      <c r="D68">
-        <v>2251.17013</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>-0.14082143138599534</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>9</v>
-      </c>
-      <c r="C69">
-        <v>2246</v>
-      </c>
-      <c r="D69">
-        <v>2250.73081</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
-        <v>-0.21018995159176854</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>2204</v>
-      </c>
-      <c r="D70">
-        <v>2216.16651</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>-0.54898898368426374</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71">
-        <v>2204</v>
-      </c>
-      <c r="D71">
-        <v>2228.44805</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>-1.0970886218325784</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>2204</v>
+        <v>2228</v>
       </c>
       <c r="D72">
-        <v>2215.6574300000002</v>
+        <v>2237.08034</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
-        <v>-0.52613864590069792</v>
+        <f t="shared" si="0"/>
+        <v>-0.40590138126197017</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>2203</v>
+        <v>2225</v>
       </c>
       <c r="D73">
-        <v>2216.0841300000002</v>
+        <v>2237.1645699999999</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
-        <v>-0.59041666437095897</v>
+        <f t="shared" si="0"/>
+        <v>-0.54374944798986846</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>2205</v>
+        <v>2226</v>
       </c>
       <c r="D74">
-        <v>2214.8804300000002</v>
+        <v>2237.01719</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
-        <v>-0.44609315546664341</v>
+        <f t="shared" si="0"/>
+        <v>-0.49249465087928218</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>2203</v>
+        <v>2227</v>
       </c>
       <c r="D75">
-        <v>2214.7639300000001</v>
+        <v>2236.89194</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
-        <v>-0.53115954439442548</v>
+        <f t="shared" si="0"/>
+        <v>-0.44221805368032119</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>2205</v>
+        <v>2225</v>
       </c>
       <c r="D76">
-        <v>2214.7442700000001</v>
+        <v>2236.9279499999998</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
-        <v>-0.43997269264862537</v>
+        <f t="shared" si="0"/>
+        <v>-0.53322906533488412</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>2205</v>
+        <v>2226</v>
       </c>
       <c r="D77">
-        <v>2214.7229000000002</v>
+        <v>2236.91005</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
-        <v>-0.4390120317083554</v>
+        <f t="shared" si="0"/>
+        <v>-0.48772859686512454</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>2203</v>
+        <v>2227</v>
       </c>
       <c r="D78">
-        <v>2214.77558</v>
+        <v>2237.4102800000001</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
-        <v>-0.5316827630906058</v>
+        <f t="shared" si="0"/>
+        <v>-0.46528256766568793</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B79">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C79">
-        <v>2205</v>
+        <v>2225</v>
       </c>
       <c r="D79">
-        <v>2215.15094</v>
+        <v>2237.45181</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
-        <v>-0.45825048833918253</v>
+        <f t="shared" si="0"/>
+        <v>-0.55651746081628561</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C80">
         <v>2226</v>
       </c>
       <c r="D80">
-        <v>2231.1908899999999</v>
+        <v>2237.8469100000002</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
-        <v>-0.23265109333607284</v>
+        <f t="shared" si="0"/>
+        <v>-0.52938875966275123</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C81">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="D81">
-        <v>2231.18291</v>
+        <v>2237.84411</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
-        <v>-0.32193281724267026</v>
+        <f t="shared" si="0"/>
+        <v>-0.57395016670754606</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>2223</v>
+        <v>2249</v>
       </c>
       <c r="D82">
-        <v>2232.0873900000001</v>
+        <v>2250.9765600000001</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
-        <v>-0.407125188767817</v>
+        <f t="shared" si="0"/>
+        <v>-8.7808999663686549E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>2224</v>
+        <v>2246</v>
       </c>
       <c r="D83">
-        <v>2231.2946000000002</v>
+        <v>2251.5275000000001</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
-        <v>-0.32692231675728395</v>
+        <f t="shared" si="0"/>
+        <v>-0.24549999944482778</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2222</v>
+        <v>2247</v>
       </c>
       <c r="D84">
-        <v>2231.2240900000002</v>
+        <v>2260.2973699999998</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
-        <v>-0.41340939448176001</v>
+        <f t="shared" si="0"/>
+        <v>-0.5883017949978756</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>2224</v>
+        <v>2248</v>
       </c>
       <c r="D85">
-        <v>2230.60446</v>
+        <v>2251.3372599999998</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
-        <v>-0.29608386957139038</v>
+        <f t="shared" si="0"/>
+        <v>-0.14823456526454806</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>2222</v>
+        <v>2246</v>
       </c>
       <c r="D86">
-        <v>2232.42002</v>
+        <v>2251.5301599999998</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
-        <v>-0.46675893902797122</v>
+        <f t="shared" si="0"/>
+        <v>-0.2456178512838485</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>2223</v>
+        <v>2247</v>
       </c>
       <c r="D87">
-        <v>2231.5699100000002</v>
+        <v>2251.4725100000001</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
-        <v>-0.38403054108218204</v>
+        <f t="shared" si="0"/>
+        <v>-0.19864821711725258</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>2222</v>
+        <v>2249</v>
       </c>
       <c r="D88">
-        <v>2231.5289200000002</v>
+        <v>2251.1824499999998</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
-        <v>-0.42701306331267253</v>
+        <f t="shared" si="0"/>
+        <v>-9.6946828987574507E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C89">
-        <v>2222</v>
+        <v>2247</v>
       </c>
       <c r="D89">
-        <v>2231.8935799999999</v>
+        <v>2251.0229300000001</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
-        <v>-0.44328188801904839</v>
+        <f t="shared" ref="E89:E152" si="1">(C89-D89)/D89*100</f>
+        <v>-0.17871563840533988</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>2042</v>
+        <v>2248</v>
       </c>
       <c r="D90">
-        <v>2051.2399300000002</v>
+        <v>2251.17013</v>
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>-0.45045583721647742</v>
+        <v>-0.14082143138599534</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C91">
-        <v>2041</v>
+        <v>2246</v>
       </c>
       <c r="D91">
-        <v>2075.64912</v>
+        <v>2250.73081</v>
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>-1.6693148984641508</v>
+        <v>-0.21018995159176854</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>2040</v>
+        <v>2204</v>
       </c>
       <c r="D92">
-        <v>2051.4403499999999</v>
+        <v>2216.16651</v>
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>-0.55767402644682573</v>
+        <v>-0.54898898368426374</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>2039</v>
+        <v>2204</v>
       </c>
       <c r="D93">
-        <v>2051.55629</v>
+        <v>2228.44805</v>
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>-0.6120373133900211</v>
+        <v>-1.0970886218325784</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>2040</v>
+        <v>2204</v>
       </c>
       <c r="D94">
-        <v>2052.30935</v>
+        <v>2215.6574300000002</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>-0.59978043758364186</v>
+        <v>-0.52613864590069792</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>2038</v>
+        <v>2203</v>
       </c>
       <c r="D95">
-        <v>2052.2785800000001</v>
+        <v>2216.0841300000002</v>
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>-0.69574277776656168</v>
+        <v>-0.59041666437095897</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>2040</v>
+        <v>2205</v>
       </c>
       <c r="D96">
-        <v>2052.31754</v>
+        <v>2214.8804300000002</v>
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>-0.60017710514718925</v>
+        <v>-0.44609315546664341</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>2039</v>
+        <v>2203</v>
       </c>
       <c r="D97">
-        <v>2052.3331400000002</v>
+        <v>2214.7639300000001</v>
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>-0.64965768666582968</v>
+        <v>-0.53115954439442548</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B98">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>2039</v>
+        <v>2205</v>
       </c>
       <c r="D98">
-        <v>2052.0546599999998</v>
+        <v>2214.7442700000001</v>
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>-0.63617506173055771</v>
+        <v>-0.43997269264862537</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <v>2040</v>
+        <v>2205</v>
       </c>
       <c r="D99">
-        <v>2051.2548700000002</v>
+        <v>2214.7229000000002</v>
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>-0.54868218301903215</v>
+        <v>-0.4390120317083554</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>2340</v>
+        <v>2203</v>
       </c>
       <c r="D100">
-        <v>2338.76721</v>
+        <v>2214.77558</v>
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>5.2711103299589307E-2</v>
+        <v>-0.5316827630906058</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C101">
-        <v>2341</v>
+        <v>2205</v>
       </c>
       <c r="D101">
-        <v>2338.9238700000001</v>
+        <v>2215.15094</v>
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>8.8764325621249085E-2</v>
+        <v>-0.45825048833918253</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>2339</v>
+        <v>2226</v>
       </c>
       <c r="D102">
-        <v>2338.7255799999998</v>
+        <v>2231.1908899999999</v>
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>1.1733740903462093E-2</v>
+        <v>-0.23265109333607284</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>2338</v>
+        <v>2224</v>
       </c>
       <c r="D103">
-        <v>2338.63816</v>
+        <v>2231.18291</v>
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>-2.7287675832672241E-2</v>
+        <v>-0.32193281724267026</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>2338</v>
+        <v>2223</v>
       </c>
       <c r="D104">
-        <v>2338.4841200000001</v>
+        <v>2232.0873900000001</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>-2.0702300086608047E-2</v>
+        <v>-0.407125188767817</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>2338</v>
+        <v>2224</v>
       </c>
       <c r="D105">
-        <v>2338.8321700000001</v>
+        <v>2231.2946000000002</v>
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>-3.5580577806065189E-2</v>
+        <v>-0.32692231675728395</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>2339</v>
+        <v>2222</v>
       </c>
       <c r="D106">
-        <v>2338.1931500000001</v>
+        <v>2231.2240900000002</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>3.4507414410992532E-2</v>
+        <v>-0.41340939448176001</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B107">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107">
-        <v>2340</v>
+        <v>2224</v>
       </c>
       <c r="D107">
-        <v>2339.36195</v>
+        <v>2230.60446</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>2.7274530989102437E-2</v>
+        <v>-0.29608386957139038</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>2337</v>
+        <v>2222</v>
       </c>
       <c r="D108">
-        <v>2338.2014800000002</v>
+        <v>2232.42002</v>
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>-5.1384793409684014E-2</v>
+        <v>-0.46675893902797122</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B109">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C109">
-        <v>2340</v>
+        <v>2223</v>
       </c>
       <c r="D109">
-        <v>2338.1368400000001</v>
+        <v>2231.5699100000002</v>
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>7.9685669723243382E-2</v>
+        <v>-0.38403054108218204</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C110">
-        <v>2212</v>
+        <v>2222</v>
       </c>
       <c r="D110">
-        <v>2216.2448199999999</v>
+        <v>2231.5289200000002</v>
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>-0.19153208895034848</v>
+        <v>-0.42701306331267253</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C111">
-        <v>2210</v>
+        <v>2222</v>
       </c>
       <c r="D111">
-        <v>2216.1954500000002</v>
+        <v>2231.8935799999999</v>
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>-0.27955341213249779</v>
+        <v>-0.44328188801904839</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>2208</v>
+        <v>2042</v>
       </c>
       <c r="D112">
-        <v>2244.8688099999999</v>
+        <v>2051.2399300000002</v>
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
-        <v>-1.642359225437318</v>
+        <v>-0.45045583721647742</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>2208</v>
+        <v>2041</v>
       </c>
       <c r="D113">
-        <v>2216.2785699999999</v>
+        <v>2075.64912</v>
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
-        <v>-0.37353472221679901</v>
+        <v>-1.6693148984641508</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>2211</v>
+        <v>2040</v>
       </c>
       <c r="D114">
-        <v>2216.52673</v>
+        <v>2051.4403499999999</v>
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>-0.24934190619934651</v>
+        <v>-0.55767402644682573</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>2207</v>
+        <v>2039</v>
       </c>
       <c r="D115">
-        <v>2216.5803700000001</v>
+        <v>2051.55629</v>
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
-        <v>-0.43221396930444395</v>
+        <v>-0.6120373133900211</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>2210</v>
+        <v>2040</v>
       </c>
       <c r="D116">
-        <v>2216.4703399999999</v>
+        <v>2052.30935</v>
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>-0.29192089256650516</v>
+        <v>-0.59978043758364186</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>2210</v>
+        <v>2038</v>
       </c>
       <c r="D117">
-        <v>2216.2735600000001</v>
+        <v>2052.2785800000001</v>
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>-0.28306794401319701</v>
+        <v>-0.69574277776656168</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>2209</v>
+        <v>2040</v>
       </c>
       <c r="D118">
-        <v>2217.2971400000001</v>
+        <v>2052.31754</v>
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
-        <v>-0.37420063600497527</v>
+        <v>-0.60017710514718925</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>2210</v>
+        <v>2039</v>
       </c>
       <c r="D119">
-        <v>2217.3634699999998</v>
+        <v>2052.3331400000002</v>
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
-        <v>-0.33208222736707121</v>
+        <v>-0.64965768666582968</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>2249</v>
+        <v>2039</v>
       </c>
       <c r="D120">
-        <v>203.891198</v>
+        <v>2052.0546599999998</v>
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
-        <v>1003.0392788216388</v>
+        <v>-0.63617506173055771</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>2248</v>
+        <v>2040</v>
       </c>
       <c r="D121">
-        <v>2256.08826</v>
+        <v>2051.2548700000002</v>
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
-        <v>-0.35850813744316862</v>
+        <v>-0.54868218301903215</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>2246</v>
+        <v>2340</v>
       </c>
       <c r="D122">
-        <v>2255.13474</v>
+        <v>2338.76721</v>
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
-        <v>-0.40506404508672356</v>
+        <v>5.2711103299589307E-2</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>2247</v>
+        <v>2341</v>
       </c>
       <c r="D123">
-        <v>2255.1323400000001</v>
+        <v>2338.9238700000001</v>
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
-        <v>-0.36061475664883208</v>
+        <v>8.8764325621249085E-2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>2244</v>
+        <v>2339</v>
       </c>
       <c r="D124">
-        <v>2255.0350199999998</v>
+        <v>2338.7255799999998</v>
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
-        <v>-0.48935027181971674</v>
+        <v>1.1733740903462093E-2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>2248</v>
+        <v>2338</v>
       </c>
       <c r="D125">
-        <v>2255.1458299999999</v>
+        <v>2338.63816</v>
       </c>
       <c r="E125">
         <f t="shared" si="1"/>
-        <v>-0.31686775661864547</v>
+        <v>-2.7287675832672241E-2</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B126">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>2245</v>
+        <v>2338</v>
       </c>
       <c r="D126">
-        <v>2254.6149700000001</v>
+        <v>2338.4841200000001</v>
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
-        <v>-0.42645729439116087</v>
+        <v>-2.0702300086608047E-2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B127">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>2247</v>
+        <v>2338</v>
       </c>
       <c r="D127">
-        <v>2279.2334300000002</v>
+        <v>2338.8321700000001</v>
       </c>
       <c r="E127">
         <f t="shared" si="1"/>
-        <v>-1.4142224124889315</v>
+        <v>-3.5580577806065189E-2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B128">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>2247</v>
+        <v>2339</v>
       </c>
       <c r="D128">
-        <v>2254.8407900000002</v>
+        <v>2338.1931500000001</v>
       </c>
       <c r="E128">
         <f t="shared" si="1"/>
-        <v>-0.34773142453220374</v>
+        <v>3.4507414410992532E-2</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B129">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C129">
-        <v>2244</v>
+        <v>2340</v>
       </c>
       <c r="D129">
-        <v>2253.4999299999999</v>
+        <v>2339.36195</v>
       </c>
       <c r="E129">
         <f t="shared" si="1"/>
-        <v>-0.42156335900130026</v>
+        <v>2.7274530989102437E-2</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>2362</v>
+        <v>2337</v>
       </c>
       <c r="D130">
-        <v>2244.1566899999998</v>
+        <v>2338.2014800000002</v>
       </c>
       <c r="E130">
         <f t="shared" si="1"/>
-        <v>5.251117737237867</v>
+        <v>-5.1384793409684014E-2</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C131">
-        <v>2361</v>
+        <v>2340</v>
       </c>
       <c r="D131">
-        <v>2244.29585</v>
+        <v>2338.1368400000001</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E135" si="2">(C131-D131)/D131*100</f>
-        <v>5.200034122061048</v>
+        <f t="shared" si="1"/>
+        <v>7.9685669723243382E-2</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
+        <v>14</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>2212</v>
+      </c>
+      <c r="D132">
+        <v>2216.2448199999999</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="1"/>
+        <v>-0.19153208895034848</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>2210</v>
+      </c>
+      <c r="D133">
+        <v>2216.1954500000002</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="1"/>
+        <v>-0.27955341213249779</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134">
+        <v>2208</v>
+      </c>
+      <c r="D134">
+        <v>2244.8688099999999</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="1"/>
+        <v>-1.642359225437318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>2208</v>
+      </c>
+      <c r="D135">
+        <v>2216.2785699999999</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="1"/>
+        <v>-0.37353472221679901</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>2211</v>
+      </c>
+      <c r="D136">
+        <v>2216.52673</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="1"/>
+        <v>-0.24934190619934651</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>14</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>2207</v>
+      </c>
+      <c r="D137">
+        <v>2216.5803700000001</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="1"/>
+        <v>-0.43221396930444395</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>2210</v>
+      </c>
+      <c r="D138">
+        <v>2216.4703399999999</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="1"/>
+        <v>-0.29192089256650516</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>14</v>
+      </c>
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>2210</v>
+      </c>
+      <c r="D139">
+        <v>2216.2735600000001</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="1"/>
+        <v>-0.28306794401319701</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>14</v>
+      </c>
+      <c r="B140">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>2209</v>
+      </c>
+      <c r="D140">
+        <v>2217.2971400000001</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="1"/>
+        <v>-0.37420063600497527</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>14</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>2210</v>
+      </c>
+      <c r="D141">
+        <v>2217.3634699999998</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="1"/>
+        <v>-0.33208222736707121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>15</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>15</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>2248</v>
+      </c>
+      <c r="D143">
+        <v>2256.08826</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="1"/>
+        <v>-0.35850813744316862</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>15</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>2246</v>
+      </c>
+      <c r="D144">
+        <v>2255.13474</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="1"/>
+        <v>-0.40506404508672356</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>15</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>2247</v>
+      </c>
+      <c r="D145">
+        <v>2255.1323400000001</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="1"/>
+        <v>-0.36061475664883208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>15</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>2244</v>
+      </c>
+      <c r="D146">
+        <v>2255.0350199999998</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="1"/>
+        <v>-0.48935027181971674</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>15</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>2248</v>
+      </c>
+      <c r="D147">
+        <v>2255.1458299999999</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="1"/>
+        <v>-0.31686775661864547</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>15</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148">
+        <v>2245</v>
+      </c>
+      <c r="D148">
+        <v>2254.6149700000001</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="1"/>
+        <v>-0.42645729439116087</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>15</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>2247</v>
+      </c>
+      <c r="D149">
+        <v>2279.2334300000002</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="1"/>
+        <v>-1.4142224124889315</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>15</v>
+      </c>
+      <c r="B150">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>2247</v>
+      </c>
+      <c r="D150">
+        <v>2254.8407900000002</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="1"/>
+        <v>-0.34773142453220374</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>15</v>
+      </c>
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>2244</v>
+      </c>
+      <c r="D151">
+        <v>2253.4999299999999</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="1"/>
+        <v>-0.42156335900130026</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152">
         <v>16</v>
       </c>
-      <c r="B132">
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>2362</v>
+      </c>
+      <c r="D152">
+        <v>2244.1566899999998</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="1"/>
+        <v>5.251117737237867</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>16</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>2361</v>
+      </c>
+      <c r="D153">
+        <v>2244.29585</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ref="E153:E157" si="2">(C153-D153)/D153*100</f>
+        <v>5.200034122061048</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>16</v>
+      </c>
+      <c r="B154">
         <v>2</v>
       </c>
-      <c r="C132">
+      <c r="C154">
         <v>2358</v>
       </c>
-      <c r="D132">
+      <c r="D154">
         <v>2243.7760499999999</v>
       </c>
-      <c r="E132">
+      <c r="E154">
         <f t="shared" si="2"/>
         <v>5.0907018995946611</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
         <v>16</v>
       </c>
-      <c r="B133">
+      <c r="B155">
         <v>3</v>
       </c>
-      <c r="C133">
+      <c r="C155">
         <v>2360</v>
       </c>
-      <c r="D133">
+      <c r="D155">
         <v>2244.2096099999999</v>
       </c>
-      <c r="E133">
+      <c r="E155">
         <f t="shared" si="2"/>
         <v>5.1595176085178656</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
         <v>16</v>
       </c>
-      <c r="B134">
+      <c r="B156">
         <v>4</v>
       </c>
-      <c r="C134">
+      <c r="C156">
         <v>2360</v>
       </c>
-      <c r="D134">
+      <c r="D156">
         <v>2244.2329500000001</v>
       </c>
-      <c r="E134">
+      <c r="E156">
         <f t="shared" si="2"/>
         <v>5.1584239505974603</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
         <v>16</v>
       </c>
-      <c r="B135">
+      <c r="B157">
         <v>5</v>
       </c>
-      <c r="C135">
+      <c r="C157">
         <v>2357</v>
       </c>
-      <c r="D135">
+      <c r="D157">
         <v>2243.7591499999999</v>
       </c>
-      <c r="E135">
+      <c r="E157">
         <f t="shared" si="2"/>
         <v>5.0469253796692097</v>
       </c>
@@ -5685,10 +7541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D8648E-F5A9-4383-8EE0-15839BB43F27}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+      <selection activeCell="B143" sqref="B143:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8178,7 +10034,7 @@
         <v>2514.9008100000001</v>
       </c>
       <c r="E138">
-        <f t="shared" ref="E138:E154" si="3">(C138-D138)/D138*100</f>
+        <f t="shared" ref="E138:E161" si="3">(C138-D138)/D138*100</f>
         <v>-3.5818907704757236E-2</v>
       </c>
     </row>
@@ -8292,128 +10148,58 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>2682</v>
-      </c>
-      <c r="D145">
-        <v>2543.8479299999999</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="3"/>
-        <v>5.4308305292447301</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>2723</v>
-      </c>
-      <c r="D146">
-        <v>2543.5016000000001</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="3"/>
-        <v>7.0571372945076956</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B147">
-        <v>2</v>
-      </c>
-      <c r="C147">
-        <v>2683</v>
-      </c>
-      <c r="D147">
-        <v>2543.8609999999999</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="3"/>
-        <v>5.4695991644197592</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B148">
-        <v>3</v>
-      </c>
-      <c r="C148">
-        <v>2680</v>
-      </c>
-      <c r="D148">
-        <v>2544.3836500000002</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="3"/>
-        <v>5.3300275687591281</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149">
-        <v>4</v>
-      </c>
-      <c r="C149">
-        <v>2679</v>
-      </c>
-      <c r="D149">
-        <v>2545.0187500000002</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="3"/>
-        <v>5.2644504092553275</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B150">
-        <v>5</v>
-      </c>
-      <c r="C150">
-        <v>2681</v>
-      </c>
-      <c r="D150">
-        <v>2544.7376199999999</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="3"/>
-        <v>5.3546730684163864</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151">
-        <v>6</v>
-      </c>
-      <c r="C151">
-        <v>2678</v>
-      </c>
-      <c r="D151">
-        <v>2544.08475</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="3"/>
-        <v>5.2637888733856064</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -8421,17 +10207,17 @@
         <v>16</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="D152">
-        <v>2545.8241499999999</v>
+        <v>2543.8479299999999</v>
       </c>
       <c r="E152">
         <f t="shared" si="3"/>
-        <v>5.2704288314650514</v>
+        <v>5.4308305292447301</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -8439,17 +10225,17 @@
         <v>16</v>
       </c>
       <c r="B153">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C153">
-        <v>2717</v>
+        <v>2723</v>
       </c>
       <c r="D153">
-        <v>2546.4113699999998</v>
+        <v>2543.5016000000001</v>
       </c>
       <c r="E153">
         <f t="shared" si="3"/>
-        <v>6.6991779886688221</v>
+        <v>7.0571372945076956</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -8457,15 +10243,141 @@
         <v>16</v>
       </c>
       <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>2683</v>
+      </c>
+      <c r="D154">
+        <v>2543.8609999999999</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="3"/>
+        <v>5.4695991644197592</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>16</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>2680</v>
+      </c>
+      <c r="D155">
+        <v>2544.3836500000002</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="3"/>
+        <v>5.3300275687591281</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>16</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>2679</v>
+      </c>
+      <c r="D156">
+        <v>2545.0187500000002</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="3"/>
+        <v>5.2644504092553275</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>2681</v>
+      </c>
+      <c r="D157">
+        <v>2544.7376199999999</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="3"/>
+        <v>5.3546730684163864</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>16</v>
+      </c>
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>2678</v>
+      </c>
+      <c r="D158">
+        <v>2544.08475</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="3"/>
+        <v>5.2637888733856064</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>16</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>2680</v>
+      </c>
+      <c r="D159">
+        <v>2545.8241499999999</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="3"/>
+        <v>5.2704288314650514</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>16</v>
+      </c>
+      <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>2717</v>
+      </c>
+      <c r="D160">
+        <v>2546.4113699999998</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="3"/>
+        <v>6.6991779886688221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>16</v>
+      </c>
+      <c r="B161">
         <v>9</v>
       </c>
-      <c r="C154">
+      <c r="C161">
         <v>2679</v>
       </c>
-      <c r="D154">
+      <c r="D161">
         <v>2545.5554499999998</v>
       </c>
-      <c r="E154">
+      <c r="E161">
         <f t="shared" si="3"/>
         <v>5.2422566556151891</v>
       </c>
@@ -8477,10 +10389,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6C7051-7DA9-4811-BB69-4EFBF39BC748}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8540,7 +10452,7 @@
         <v>2779.6955400000002</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E60" si="0">(C3-D3)/D3*100</f>
+        <f t="shared" ref="E3:E66" si="0">(C3-D3)/D3*100</f>
         <v>1.234108538376107</v>
       </c>
     </row>
@@ -8762,110 +10674,50 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>2592</v>
-      </c>
-      <c r="D16">
-        <v>2609.0328</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>-0.65283962700660392</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>2592</v>
-      </c>
-      <c r="D17">
-        <v>2592.48623</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>-1.8755355163447781E-2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2588</v>
-      </c>
-      <c r="D18">
-        <v>2610.20199</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>-0.85058513038678751</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>2587</v>
-      </c>
-      <c r="D19">
-        <v>2609.4775300000001</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>-0.86138047718694533</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>2588</v>
-      </c>
-      <c r="D20">
-        <v>2609.5287400000002</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>-0.82500490107651381</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>2590</v>
-      </c>
-      <c r="D21">
-        <v>2610.9341599999998</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>-0.8017881232209928</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -8873,17 +10725,17 @@
         <v>3</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="D22">
-        <v>2611.7356199999999</v>
+        <v>2609.0328</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-0.8705176674812104</v>
+        <v>-0.65283962700660392</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -8891,17 +10743,17 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="D23">
-        <v>2611.4733200000001</v>
+        <v>2592.48623</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>-0.8988535253348886</v>
+        <v>-1.8755355163447781E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -8909,17 +10761,17 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="D24">
-        <v>2611.2981</v>
+        <v>2610.20199</v>
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>-0.93049889631520721</v>
+        <v>-0.85058513038678751</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -8927,125 +10779,125 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="D25">
-        <v>2611.29414</v>
+        <v>2609.4775300000001</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-0.85375828247368446</v>
+        <v>-0.86138047718694533</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
       <c r="C26">
-        <v>2855</v>
+        <v>2588</v>
       </c>
       <c r="D26">
-        <v>2872.0702500000002</v>
+        <v>2609.5287400000002</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-0.59435349814302807</v>
+        <v>-0.82500490107651381</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>2853</v>
+        <v>2590</v>
       </c>
       <c r="D27">
-        <v>2872.4036900000001</v>
+        <v>2610.9341599999998</v>
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-0.6755209954489404</v>
+        <v>-0.8017881232209928</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>2852</v>
+        <v>2589</v>
       </c>
       <c r="D28">
-        <v>2871.7121999999999</v>
+        <v>2611.7356199999999</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>-0.68642672479505229</v>
+        <v>-0.8705176674812104</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>2851</v>
+        <v>2588</v>
       </c>
       <c r="D29">
-        <v>2872.2898</v>
+        <v>2611.4733200000001</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>-0.7412135084697935</v>
+        <v>-0.8988535253348886</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>2850</v>
+        <v>2587</v>
       </c>
       <c r="D30">
-        <v>2872.53361</v>
+        <v>2611.2981</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-0.78445069960382308</v>
+        <v>-0.93049889631520721</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>2851</v>
+        <v>2589</v>
       </c>
       <c r="D31">
-        <v>2861.07287</v>
+        <v>2611.29414</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>-0.35206618138320844</v>
+        <v>-0.85375828247368446</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -9053,17 +10905,17 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="D32">
-        <v>2872.0264999999999</v>
+        <v>2872.0702500000002</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>-0.66247647784586738</v>
+        <v>-0.59435349814302807</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -9071,17 +10923,17 @@
         <v>4</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="D33">
-        <v>2872.9437699999999</v>
+        <v>2872.4036900000001</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-0.76380784856084605</v>
+        <v>-0.6755209954489404</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -9089,17 +10941,17 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="D34">
-        <v>2873.2683099999999</v>
+        <v>2871.7121999999999</v>
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-0.77501672650960773</v>
+        <v>-0.68642672479505229</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -9107,125 +10959,125 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="D35">
-        <v>2872.8360899999998</v>
+        <v>2872.2898</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-0.72527945720703435</v>
+        <v>-0.7412135084697935</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>2745</v>
+        <v>2850</v>
       </c>
       <c r="D36">
-        <v>2755.8156899999999</v>
+        <v>2872.53361</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-0.39246782864495211</v>
+        <v>-0.78445069960382308</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
       <c r="C37">
-        <v>2745</v>
+        <v>2851</v>
       </c>
       <c r="D37">
-        <v>2755.9408699999999</v>
+        <v>2861.07287</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-0.3969921894586913</v>
+        <v>-0.35206618138320844</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>2740</v>
+        <v>2853</v>
       </c>
       <c r="D38">
-        <v>2728.6887700000002</v>
+        <v>2872.0264999999999</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>0.41452986959739618</v>
+        <v>-0.66247647784586738</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>2741</v>
+        <v>2851</v>
       </c>
       <c r="D39">
-        <v>2756.9300800000001</v>
+        <v>2872.9437699999999</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-0.57781951437811174</v>
+        <v>-0.76380784856084605</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>2742</v>
+        <v>2851</v>
       </c>
       <c r="D40">
-        <v>2757.4245700000001</v>
+        <v>2873.2683099999999</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>-0.55938320735279912</v>
+        <v>-0.77501672650960773</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>2742</v>
+        <v>2852</v>
       </c>
       <c r="D41">
-        <v>2757.7633599999999</v>
+        <v>2872.8360899999998</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-0.57159944281803499</v>
+        <v>-0.72527945720703435</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -9233,17 +11085,17 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>2740</v>
+        <v>2745</v>
       </c>
       <c r="D42">
-        <v>2756.2267299999999</v>
+        <v>2755.8156899999999</v>
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>-0.58872986838785446</v>
+        <v>-0.39246782864495211</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -9251,17 +11103,17 @@
         <v>5</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>2740</v>
+        <v>2745</v>
       </c>
       <c r="D43">
-        <v>2756.6980199999998</v>
+        <v>2755.9408699999999</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-0.60572539606640763</v>
+        <v>-0.3969921894586913</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -9269,17 +11121,17 @@
         <v>5</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="D44">
-        <v>2756.8290499999998</v>
+        <v>2728.6887700000002</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>-0.53790241364439428</v>
+        <v>0.41452986959739618</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -9287,125 +11139,125 @@
         <v>5</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="D45">
-        <v>2757.5626499999998</v>
+        <v>2756.9300800000001</v>
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-0.63689033502103198</v>
+        <v>-0.57781951437811174</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>2672</v>
+        <v>2742</v>
       </c>
       <c r="D46">
-        <v>2684.1691900000001</v>
+        <v>2757.4245700000001</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>-0.45336896218528128</v>
+        <v>-0.55938320735279912</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>2671</v>
+        <v>2742</v>
       </c>
       <c r="D47">
-        <v>2684.1114499999999</v>
+        <v>2757.7633599999999</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-0.48848381463444362</v>
+        <v>-0.57159944281803499</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
         <v>6</v>
       </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
       <c r="C48">
-        <v>2669</v>
+        <v>2740</v>
       </c>
       <c r="D48">
-        <v>2684.4441999999999</v>
+        <v>2756.2267299999999</v>
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>-0.57532207225614562</v>
+        <v>-0.58872986838785446</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C49">
-        <v>2671</v>
+        <v>2740</v>
       </c>
       <c r="D49">
-        <v>2684.8444300000001</v>
+        <v>2756.6980199999998</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-0.51565110608662346</v>
+        <v>-0.60572539606640763</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>2672</v>
+        <v>2742</v>
       </c>
       <c r="D50">
-        <v>2685.21198</v>
+        <v>2756.8290499999998</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-0.49202744879754479</v>
+        <v>-0.53790241364439428</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C51">
-        <v>2670</v>
+        <v>2740</v>
       </c>
       <c r="D51">
-        <v>2686.1145000000001</v>
+        <v>2757.5626499999998</v>
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-0.59991858128162945</v>
+        <v>-0.63689033502103198</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -9413,17 +11265,17 @@
         <v>6</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>2669</v>
+        <v>2672</v>
       </c>
       <c r="D52">
-        <v>2686.5105800000001</v>
+        <v>2684.1691900000001</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>-0.65179642806395044</v>
+        <v>-0.45336896218528128</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -9431,17 +11283,17 @@
         <v>6</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>2671</v>
       </c>
       <c r="D53">
-        <v>2686.5672100000002</v>
+        <v>2684.1114499999999</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-0.57944614011723006</v>
+        <v>-0.48848381463444362</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -9449,17 +11301,17 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>2672</v>
+        <v>2669</v>
       </c>
       <c r="D54">
-        <v>2686.6568299999999</v>
+        <v>2684.4441999999999</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-0.54554157554985916</v>
+        <v>-0.57532207225614562</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -9467,125 +11319,125 @@
         <v>6</v>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>2671</v>
       </c>
       <c r="D55">
-        <v>2664.3109800000002</v>
+        <v>2684.8444300000001</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>0.25106003203874494</v>
+        <v>-0.51565110608662346</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>2841</v>
+        <v>2672</v>
       </c>
       <c r="D56">
-        <v>2837.0028900000002</v>
+        <v>2685.21198</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>0.14089199605996147</v>
+        <v>-0.49202744879754479</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57">
-        <v>2840</v>
+        <v>2670</v>
       </c>
       <c r="D57">
-        <v>2858.37619</v>
+        <v>2686.1145000000001</v>
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-0.64288913629664513</v>
+        <v>-0.59991858128162945</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>2840</v>
+        <v>2669</v>
       </c>
       <c r="D58">
-        <v>2858.5545699999998</v>
+        <v>2686.5105800000001</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-0.64908923533335894</v>
+        <v>-0.65179642806395044</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
+        <v>6</v>
+      </c>
+      <c r="B59">
         <v>7</v>
       </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
       <c r="C59">
-        <v>2841</v>
+        <v>2671</v>
       </c>
       <c r="D59">
-        <v>2858.40717</v>
+        <v>2686.5672100000002</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-0.60898146991423729</v>
+        <v>-0.57944614011723006</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>2837</v>
+        <v>2672</v>
       </c>
       <c r="D60">
-        <v>2858.5024699999999</v>
+        <v>2686.6568299999999</v>
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>-0.75222849116516255</v>
+        <v>-0.54554157554985916</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>2839</v>
+        <v>2671</v>
       </c>
       <c r="D61">
-        <v>2858.4621299999999</v>
+        <v>2664.3109800000002</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:E124" si="1">(C61-D61)/D61*100</f>
-        <v>-0.68086016588227072</v>
+        <f t="shared" si="0"/>
+        <v>0.25106003203874494</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -9593,17 +11445,17 @@
         <v>7</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="D62">
-        <v>2858.5170400000002</v>
+        <v>2837.0028900000002</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
-        <v>-0.64778483881279147</v>
+        <f t="shared" si="0"/>
+        <v>0.14089199605996147</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -9611,17 +11463,17 @@
         <v>7</v>
       </c>
       <c r="B63">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>2840</v>
       </c>
       <c r="D63">
-        <v>2859.1433999999999</v>
+        <v>2858.37619</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
-        <v>-0.66955018765410401</v>
+        <f t="shared" si="0"/>
+        <v>-0.64288913629664513</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -9629,17 +11481,17 @@
         <v>7</v>
       </c>
       <c r="B64">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="D64">
-        <v>2859.4113000000002</v>
+        <v>2858.5545699999998</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
-        <v>-0.74880098571339526</v>
+        <f t="shared" si="0"/>
+        <v>-0.64908923533335894</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -9647,125 +11499,125 @@
         <v>7</v>
       </c>
       <c r="B65">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="D65">
-        <v>2859.09609</v>
+        <v>2858.40717</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
-        <v>-0.56297828031376174</v>
+        <f t="shared" si="0"/>
+        <v>-0.60898146991423729</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>2860</v>
+        <v>2837</v>
       </c>
       <c r="D66">
-        <v>2869.8474999999999</v>
+        <v>2858.5024699999999</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
-        <v>-0.3431366997723696</v>
+        <f t="shared" si="0"/>
+        <v>-0.75222849116516255</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>2858</v>
+        <v>2839</v>
       </c>
       <c r="D67">
-        <v>2869.14309</v>
+        <v>2858.4621299999999</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
-        <v>-0.38837693521935951</v>
+        <f t="shared" ref="E67:E131" si="1">(C67-D67)/D67*100</f>
+        <v>-0.68086016588227072</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>2856</v>
+        <v>2840</v>
       </c>
       <c r="D68">
-        <v>2869.5568699999999</v>
+        <v>2858.5170400000002</v>
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>-0.4724377530806661</v>
+        <v>-0.64778483881279147</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>2856</v>
+        <v>2840</v>
       </c>
       <c r="D69">
-        <v>2869.4767499999998</v>
+        <v>2859.1433999999999</v>
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>-0.46965879754905882</v>
+        <v>-0.66955018765410401</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
         <v>8</v>
       </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
       <c r="C70">
-        <v>2857</v>
+        <v>2838</v>
       </c>
       <c r="D70">
-        <v>2868.9017699999999</v>
+        <v>2859.4113000000002</v>
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>-0.414854566456625</v>
+        <v>-0.74880098571339526</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>2858</v>
+        <v>2843</v>
       </c>
       <c r="D71">
-        <v>2868.5620199999998</v>
+        <v>2859.09609</v>
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>-0.36819911601562122</v>
+        <v>-0.56297828031376174</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -9773,17 +11625,17 @@
         <v>8</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="D72">
-        <v>2868.9228600000001</v>
+        <v>2869.8474999999999</v>
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>-0.45044292337648034</v>
+        <v>-0.3431366997723696</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -9791,17 +11643,17 @@
         <v>8</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="D73">
-        <v>2869.18453</v>
+        <v>2869.14309</v>
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>-0.4595218558494038</v>
+        <v>-0.38837693521935951</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -9809,17 +11661,17 @@
         <v>8</v>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="D74">
-        <v>2869.26028</v>
+        <v>2869.5568699999999</v>
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>-0.39244540059642014</v>
+        <v>-0.4724377530806661</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -9827,125 +11679,125 @@
         <v>8</v>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>2865</v>
+        <v>2856</v>
       </c>
       <c r="D75">
-        <v>2875.1522500000001</v>
+        <v>2869.4767499999998</v>
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>-0.35310304002162302</v>
+        <v>-0.46965879754905882</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>2883</v>
+        <v>2857</v>
       </c>
       <c r="D76">
-        <v>2891.79855</v>
+        <v>2868.9017699999999</v>
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>-0.304258745824462</v>
+        <v>-0.414854566456625</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C77">
-        <v>2881</v>
+        <v>2858</v>
       </c>
       <c r="D77">
-        <v>2891.7186400000001</v>
+        <v>2868.5620199999998</v>
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>-0.3706667672204807</v>
+        <v>-0.36819911601562122</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>2882</v>
+        <v>2856</v>
       </c>
       <c r="D78">
-        <v>2891.5682200000001</v>
+        <v>2868.9228600000001</v>
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>-0.33090071795021009</v>
+        <v>-0.45044292337648034</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C79">
-        <v>2880</v>
+        <v>2856</v>
       </c>
       <c r="D79">
-        <v>2891.6994199999999</v>
+        <v>2869.18453</v>
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>-0.40458631070306467</v>
+        <v>-0.4595218558494038</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C80">
-        <v>2880</v>
+        <v>2858</v>
       </c>
       <c r="D80">
-        <v>2891.69578</v>
+        <v>2869.26028</v>
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>-0.40446094229179302</v>
+        <v>-0.39244540059642014</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81">
         <v>9</v>
       </c>
-      <c r="B81">
-        <v>5</v>
-      </c>
       <c r="C81">
-        <v>2882</v>
+        <v>2865</v>
       </c>
       <c r="D81">
-        <v>2891.6359000000002</v>
+        <v>2875.1522500000001</v>
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>-0.33323351670935542</v>
+        <v>-0.35310304002162302</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -9953,17 +11805,17 @@
         <v>9</v>
       </c>
       <c r="B82">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="D82">
-        <v>2889.9523300000001</v>
+        <v>2891.79855</v>
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>-0.27517166693196199</v>
+        <v>-0.304258745824462</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -9971,17 +11823,17 @@
         <v>9</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="D83">
-        <v>2891.83583</v>
+        <v>2891.7186400000001</v>
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>-0.40928429882549683</v>
+        <v>-0.3706667672204807</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -9989,143 +11841,133 @@
         <v>9</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="D84">
-        <v>2891.7501200000002</v>
+        <v>2891.5682200000001</v>
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>-0.37175134620553424</v>
+        <v>-0.33090071795021009</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>2826</v>
+        <v>2880</v>
       </c>
       <c r="D85">
-        <v>2834.85439</v>
+        <v>2891.6994199999999</v>
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>-0.3123402045351602</v>
+        <v>-0.40458631070306467</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>2824</v>
+        <v>2880</v>
       </c>
       <c r="D86">
-        <v>2834.7684599999998</v>
+        <v>2891.69578</v>
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>-0.37987088370525252</v>
+        <v>-0.40446094229179302</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C87">
-        <v>2823</v>
+        <v>2882</v>
       </c>
       <c r="D87">
-        <v>2834.7084300000001</v>
+        <v>2891.6359000000002</v>
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>-0.41303824675894918</v>
+        <v>-0.33323351670935542</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>2824</v>
+        <v>2882</v>
       </c>
       <c r="D88">
-        <v>2834.3619399999998</v>
+        <v>2889.9523300000001</v>
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>-0.36558280908894003</v>
+        <v>-0.27517166693196199</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C89">
-        <v>2821</v>
+        <v>2880</v>
       </c>
       <c r="D89">
-        <v>2834.4063900000001</v>
+        <v>2891.83583</v>
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>-0.47298757324633683</v>
+        <v>-0.40928429882549683</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>2823</v>
+        <v>2881</v>
       </c>
       <c r="D90">
-        <v>2834.6612700000001</v>
+        <v>2891.7501200000002</v>
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>-0.4113814275947002</v>
+        <v>-0.37175134620553424</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91">
-        <v>6</v>
-      </c>
-      <c r="C91">
-        <v>2828</v>
-      </c>
-      <c r="D91">
-        <v>2852.2456900000002</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="1"/>
-        <v>-0.85005615347253594</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -10133,17 +11975,17 @@
         <v>10</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="D92">
-        <v>2834.6687900000002</v>
+        <v>2834.85439</v>
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>-0.41164562297947233</v>
+        <v>-0.3123402045351602</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -10151,17 +11993,17 @@
         <v>10</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C93">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="D93">
-        <v>2833.9359800000002</v>
+        <v>2834.7684599999998</v>
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>-0.42118029779911254</v>
+        <v>-0.37987088370525252</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -10169,143 +12011,143 @@
         <v>10</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C94">
         <v>2823</v>
       </c>
       <c r="D94">
-        <v>2833.7620200000001</v>
+        <v>2834.7084300000001</v>
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>-0.37977853906024617</v>
+        <v>-0.41303824675894918</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>2848</v>
+        <v>2824</v>
       </c>
       <c r="D95">
-        <v>2859.6617299999998</v>
+        <v>2834.3619399999998</v>
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>-0.40780103036871457</v>
+        <v>-0.36558280908894003</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>2843</v>
+        <v>2821</v>
       </c>
       <c r="D96">
-        <v>2859.8369200000002</v>
+        <v>2834.4063900000001</v>
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>-0.58873706686744187</v>
+        <v>-0.47298757324633683</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C97">
-        <v>2843</v>
+        <v>2823</v>
       </c>
       <c r="D97">
-        <v>2859.93487</v>
+        <v>2834.6612700000001</v>
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>-0.59214180636218638</v>
+        <v>-0.4113814275947002</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B98">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>2845</v>
+        <v>2828</v>
       </c>
       <c r="D98">
-        <v>2860.0180099999998</v>
+        <v>2852.2456900000002</v>
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>-0.52510193808184369</v>
+        <v>-0.85005615347253594</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C99">
-        <v>2844</v>
+        <v>2823</v>
       </c>
       <c r="D99">
-        <v>2861.07825</v>
+        <v>2834.6687900000002</v>
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>-0.59691656458539799</v>
+        <v>-0.41164562297947233</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>2850</v>
+        <v>2822</v>
       </c>
       <c r="D100">
-        <v>2858.6469000000002</v>
+        <v>2833.9359800000002</v>
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>-0.30248226879647799</v>
+        <v>-0.42118029779911254</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101">
-        <v>2845</v>
+        <v>2823</v>
       </c>
       <c r="D101">
-        <v>2857.4928500000001</v>
+        <v>2833.7620200000001</v>
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>-0.43719619455916015</v>
+        <v>-0.37977853906024617</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -10313,17 +12155,17 @@
         <v>11</v>
       </c>
       <c r="B102">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="D102">
-        <v>2857.6835099999998</v>
+        <v>2859.6617299999998</v>
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>-0.4438388630377002</v>
+        <v>-0.40780103036871457</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -10331,17 +12173,17 @@
         <v>11</v>
       </c>
       <c r="B103">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="D103">
-        <v>2858.1991400000002</v>
+        <v>2859.8369200000002</v>
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>-0.49678623862437271</v>
+        <v>-0.58873706686744187</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -10349,143 +12191,143 @@
         <v>11</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C104">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="D104">
-        <v>2857.4432400000001</v>
+        <v>2859.93487</v>
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>-0.47046393824431876</v>
+        <v>-0.59214180636218638</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>2609</v>
+        <v>2845</v>
       </c>
       <c r="D105">
-        <v>2622.8277400000002</v>
+        <v>2860.0180099999998</v>
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>-0.52720732624248423</v>
+        <v>-0.52510193808184369</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C106">
-        <v>2607</v>
+        <v>2844</v>
       </c>
       <c r="D106">
-        <v>2622.8157700000002</v>
+        <v>2861.07825</v>
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>-0.60300727870033188</v>
+        <v>-0.59691656458539799</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C107">
-        <v>2606</v>
+        <v>2850</v>
       </c>
       <c r="D107">
-        <v>2622.5953500000001</v>
+        <v>2858.6469000000002</v>
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>-0.63278347534628443</v>
+        <v>-0.30248226879647799</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>2607</v>
+        <v>2845</v>
       </c>
       <c r="D108">
-        <v>2622.8242700000001</v>
+        <v>2857.4928500000001</v>
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>-0.603329402621399</v>
+        <v>-0.43719619455916015</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C109">
-        <v>2604</v>
+        <v>2845</v>
       </c>
       <c r="D109">
-        <v>2622.6526699999999</v>
+        <v>2857.6835099999998</v>
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>-0.71121388712139089</v>
+        <v>-0.4438388630377002</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110">
-        <v>2605</v>
+        <v>2844</v>
       </c>
       <c r="D110">
-        <v>2622.6300299999998</v>
+        <v>2858.1991400000002</v>
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>-0.67222710783952266</v>
+        <v>-0.49678623862437271</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B111">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C111">
-        <v>2606</v>
+        <v>2844</v>
       </c>
       <c r="D111">
-        <v>2622.6435900000001</v>
+        <v>2857.4432400000001</v>
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>-0.63461120159297468</v>
+        <v>-0.47046393824431876</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -10493,17 +12335,17 @@
         <v>12</v>
       </c>
       <c r="B112">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>2606</v>
+        <v>2609</v>
       </c>
       <c r="D112">
-        <v>2622.6153399999998</v>
+        <v>2622.8277400000002</v>
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
-        <v>-0.63354086840656676</v>
+        <v>-0.52720732624248423</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -10511,17 +12353,17 @@
         <v>12</v>
       </c>
       <c r="B113">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="D113">
-        <v>2622.6570000000002</v>
+        <v>2622.8157700000002</v>
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
-        <v>-0.71137781265335698</v>
+        <v>-0.60300727870033188</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -10529,143 +12371,143 @@
         <v>12</v>
       </c>
       <c r="B114">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="D114">
-        <v>2622.6407599999998</v>
+        <v>2622.5953500000001</v>
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>-0.67263348717266846</v>
+        <v>-0.63278347534628443</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>2987</v>
+        <v>2607</v>
       </c>
       <c r="D115">
-        <v>2994.0602199999998</v>
+        <v>2622.8242700000001</v>
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
-        <v>-0.23580754831978115</v>
+        <v>-0.603329402621399</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>2986</v>
+        <v>2604</v>
       </c>
       <c r="D116">
-        <v>2994.3162699999998</v>
+        <v>2622.6526699999999</v>
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>-0.27773519061163848</v>
+        <v>-0.71121388712139089</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>2983</v>
+        <v>2605</v>
       </c>
       <c r="D117">
-        <v>2994.3241499999999</v>
+        <v>2622.6300299999998</v>
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>-0.37818717789788786</v>
+        <v>-0.67222710783952266</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>2984</v>
+        <v>2606</v>
       </c>
       <c r="D118">
-        <v>2993.8571499999998</v>
+        <v>2622.6435900000001</v>
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
-        <v>-0.32924583592773687</v>
+        <v>-0.63461120159297468</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>2981</v>
+        <v>2606</v>
       </c>
       <c r="D119">
-        <v>2993.1129799999999</v>
+        <v>2622.6153399999998</v>
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
-        <v>-0.40469504762896991</v>
+        <v>-0.63354086840656676</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>2982</v>
+        <v>2604</v>
       </c>
       <c r="D120">
-        <v>2992.9232499999998</v>
+        <v>2622.6570000000002</v>
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
-        <v>-0.36496926541633923</v>
+        <v>-0.71137781265335698</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>2984</v>
+        <v>2605</v>
       </c>
       <c r="D121">
-        <v>2992.5823</v>
+        <v>2622.6407599999998</v>
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
-        <v>-0.28678576358618546</v>
+        <v>-0.67263348717266846</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -10673,17 +12515,17 @@
         <v>13</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C122">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="D122">
-        <v>2992.8081200000001</v>
+        <v>2994.0602199999998</v>
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
-        <v>-0.32772298145195305</v>
+        <v>-0.23580754831978115</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -10691,17 +12533,17 @@
         <v>13</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>2981</v>
+        <v>2986</v>
       </c>
       <c r="D123">
-        <v>2994.0717399999999</v>
+        <v>2994.3162699999998</v>
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
-        <v>-0.43658740120902589</v>
+        <v>-0.27773519061163848</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -10709,143 +12551,143 @@
         <v>13</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="D124">
-        <v>2994.1141699999998</v>
+        <v>2994.3241499999999</v>
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
-        <v>-0.33780174788725015</v>
+        <v>-0.37818717789788786</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>2819</v>
+        <v>2984</v>
       </c>
       <c r="D125">
-        <v>2854.6125699999998</v>
+        <v>2993.8571499999998</v>
       </c>
       <c r="E125">
-        <f t="shared" ref="E125:E130" si="2">(C125-D125)/D125*100</f>
-        <v>-1.2475447762776362</v>
+        <f t="shared" si="1"/>
+        <v>-0.32924583592773687</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>2814</v>
+        <v>2981</v>
       </c>
       <c r="D126">
-        <v>2830.66399</v>
+        <v>2993.1129799999999</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
-        <v>-0.58869544597555756</v>
+        <f t="shared" si="1"/>
+        <v>-0.40469504762896991</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>2816</v>
+        <v>2982</v>
       </c>
       <c r="D127">
-        <v>2829.89806</v>
+        <v>2992.9232499999998</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
-        <v>-0.49111521706191724</v>
+        <f t="shared" si="1"/>
+        <v>-0.36496926541633923</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>2816</v>
+        <v>2984</v>
       </c>
       <c r="D128">
-        <v>2828.44589</v>
+        <v>2992.5823</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
-        <v>-0.44002574148590001</v>
+        <f t="shared" si="1"/>
+        <v>-0.28678576358618546</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B129">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C129">
-        <v>2814</v>
+        <v>2983</v>
       </c>
       <c r="D129">
-        <v>2829.23027</v>
+        <v>2992.8081200000001</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
-        <v>-0.53831850173156881</v>
+        <f t="shared" si="1"/>
+        <v>-0.32772298145195305</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B130">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130">
-        <v>2815</v>
+        <v>2981</v>
       </c>
       <c r="D130">
-        <v>2828.6678700000002</v>
+        <v>2994.0717399999999</v>
       </c>
       <c r="E130">
-        <f t="shared" si="2"/>
-        <v>-0.48319105063402934</v>
+        <f t="shared" si="1"/>
+        <v>-0.43658740120902589</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B131">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C131">
-        <v>2816</v>
+        <v>2984</v>
       </c>
       <c r="D131">
-        <v>2828.7743999999998</v>
+        <v>2994.1141699999998</v>
       </c>
       <c r="E131">
-        <f>(C131-D131)/D131*100</f>
-        <v>-0.45158779717462749</v>
+        <f t="shared" si="1"/>
+        <v>-0.33780174788725015</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -10853,17 +12695,17 @@
         <v>14</v>
       </c>
       <c r="B132">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="D132">
-        <v>2827.23551</v>
+        <v>2854.6125699999998</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E154" si="3">(C132-D132)/D132*100</f>
-        <v>-0.43277293160483737</v>
+        <f t="shared" ref="E132:E137" si="2">(C132-D132)/D132*100</f>
+        <v>-1.2475447762776362</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -10871,17 +12713,17 @@
         <v>14</v>
       </c>
       <c r="B133">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="D133">
-        <v>2827.2582000000002</v>
+        <v>2830.66399</v>
       </c>
       <c r="E133">
-        <f t="shared" si="3"/>
-        <v>-0.50431191604644432</v>
+        <f t="shared" si="2"/>
+        <v>-0.58869544597555756</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -10889,143 +12731,143 @@
         <v>14</v>
       </c>
       <c r="B134">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>2816</v>
       </c>
       <c r="D134">
+        <v>2829.89806</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>-0.49111521706191724</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>2816</v>
+      </c>
+      <c r="D135">
+        <v>2828.44589</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>-0.44002574148590001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>2814</v>
+      </c>
+      <c r="D136">
+        <v>2829.23027</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>-0.53831850173156881</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>14</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>2815</v>
+      </c>
+      <c r="D137">
+        <v>2828.6678700000002</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>-0.48319105063402934</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>14</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>2816</v>
+      </c>
+      <c r="D138">
+        <v>2828.7743999999998</v>
+      </c>
+      <c r="E138">
+        <f>(C138-D138)/D138*100</f>
+        <v>-0.45158779717462749</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>14</v>
+      </c>
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>2815</v>
+      </c>
+      <c r="D139">
+        <v>2827.23551</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ref="E139:E161" si="3">(C139-D139)/D139*100</f>
+        <v>-0.43277293160483737</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>14</v>
+      </c>
+      <c r="B140">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>2813</v>
+      </c>
+      <c r="D140">
+        <v>2827.2582000000002</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="3"/>
+        <v>-0.50431191604644432</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>14</v>
+      </c>
+      <c r="B141">
+        <v>9</v>
+      </c>
+      <c r="C141">
+        <v>2816</v>
+      </c>
+      <c r="D141">
         <v>2827.1570200000001</v>
       </c>
-      <c r="E134">
+      <c r="E141">
         <f t="shared" si="3"/>
         <v>-0.39463743686935732</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>15</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>2860</v>
-      </c>
-      <c r="D135">
-        <v>2873.3932500000001</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="3"/>
-        <v>-0.46611267009832641</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>15</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>2857</v>
-      </c>
-      <c r="D136">
-        <v>2876.3481700000002</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="3"/>
-        <v>-0.6726643944498627</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>15</v>
-      </c>
-      <c r="B137">
-        <v>2</v>
-      </c>
-      <c r="C137">
-        <v>2858</v>
-      </c>
-      <c r="D137">
-        <v>2874.39347</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="3"/>
-        <v>-0.57032797253049627</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>15</v>
-      </c>
-      <c r="B138">
-        <v>3</v>
-      </c>
-      <c r="C138">
-        <v>2860</v>
-      </c>
-      <c r="D138">
-        <v>2872.6460999999999</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="3"/>
-        <v>-0.44022478090844303</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>15</v>
-      </c>
-      <c r="B139">
-        <v>4</v>
-      </c>
-      <c r="C139">
-        <v>2857</v>
-      </c>
-      <c r="D139">
-        <v>2895.6074100000001</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="3"/>
-        <v>-1.3333095455782131</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>15</v>
-      </c>
-      <c r="B140">
-        <v>5</v>
-      </c>
-      <c r="C140">
-        <v>2856</v>
-      </c>
-      <c r="D140">
-        <v>2872.5934999999999</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="3"/>
-        <v>-0.57764873449723908</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>15</v>
-      </c>
-      <c r="B141">
-        <v>6</v>
-      </c>
-      <c r="C141">
-        <v>2859</v>
-      </c>
-      <c r="D141">
-        <v>2869.9463099999998</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="3"/>
-        <v>-0.38141166480566713</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -11033,17 +12875,17 @@
         <v>15</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>2857</v>
+        <v>2860</v>
       </c>
       <c r="D142">
-        <v>2866.9480899999999</v>
+        <v>2873.3932500000001</v>
       </c>
       <c r="E142">
         <f t="shared" si="3"/>
-        <v>-0.34699233078893543</v>
+        <v>-0.46611267009832641</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -11051,17 +12893,17 @@
         <v>15</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="D143">
-        <v>2866.0003000000002</v>
+        <v>2876.3481700000002</v>
       </c>
       <c r="E143">
         <f t="shared" si="3"/>
-        <v>-0.34892878413167477</v>
+        <v>-0.6726643944498627</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -11069,143 +12911,143 @@
         <v>15</v>
       </c>
       <c r="B144">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C144">
-        <v>2865</v>
+        <v>2858</v>
       </c>
       <c r="D144">
-        <v>2865.7185800000002</v>
+        <v>2874.39347</v>
       </c>
       <c r="E144">
         <f t="shared" si="3"/>
-        <v>-2.5075037200624276E-2</v>
+        <v>-0.57032797253049627</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C145">
-        <v>3006</v>
+        <v>2860</v>
       </c>
       <c r="D145">
-        <v>2845.1086599999999</v>
+        <v>2872.6460999999999</v>
       </c>
       <c r="E145">
         <f t="shared" si="3"/>
-        <v>5.6550156506149092</v>
+        <v>-0.44022478090844303</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>3004</v>
+        <v>2857</v>
       </c>
       <c r="D146">
-        <v>2845.8680300000001</v>
+        <v>2895.6074100000001</v>
       </c>
       <c r="E146">
         <f t="shared" si="3"/>
-        <v>5.5565461340102935</v>
+        <v>-1.3333095455782131</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C147">
-        <v>3001</v>
+        <v>2856</v>
       </c>
       <c r="D147">
-        <v>2846.3642599999998</v>
+        <v>2872.5934999999999</v>
       </c>
       <c r="E147">
         <f t="shared" si="3"/>
-        <v>5.4327459831160256</v>
+        <v>-0.57764873449723908</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C148">
-        <v>3002</v>
+        <v>2859</v>
       </c>
       <c r="D148">
-        <v>2845.1263800000002</v>
+        <v>2869.9463099999998</v>
       </c>
       <c r="E148">
         <f t="shared" si="3"/>
-        <v>5.5137663164193027</v>
+        <v>-0.38141166480566713</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C149">
-        <v>3004</v>
+        <v>2857</v>
       </c>
       <c r="D149">
-        <v>2846.8850699999998</v>
+        <v>2866.9480899999999</v>
       </c>
       <c r="E149">
         <f t="shared" si="3"/>
-        <v>5.5188364172354945</v>
+        <v>-0.34699233078893543</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B150">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150">
-        <v>3004</v>
+        <v>2856</v>
       </c>
       <c r="D150">
-        <v>2846.1680000000001</v>
+        <v>2866.0003000000002</v>
       </c>
       <c r="E150">
         <f t="shared" si="3"/>
-        <v>5.5454210714195327</v>
+        <v>-0.34892878413167477</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C151">
-        <v>3002</v>
+        <v>2865</v>
       </c>
       <c r="D151">
-        <v>2847.4658599999998</v>
+        <v>2865.7185800000002</v>
       </c>
       <c r="E151">
         <f t="shared" si="3"/>
-        <v>5.4270761300716774</v>
+        <v>-2.5075037200624276E-2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -11213,17 +13055,17 @@
         <v>16</v>
       </c>
       <c r="B152">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D152">
-        <v>2847.3014600000001</v>
+        <v>2845.1086599999999</v>
       </c>
       <c r="E152">
         <f t="shared" si="3"/>
-        <v>5.5385262928920724</v>
+        <v>5.6550156506149092</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -11231,17 +13073,17 @@
         <v>16</v>
       </c>
       <c r="B153">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C153">
         <v>3004</v>
       </c>
       <c r="D153">
-        <v>2848.5291900000002</v>
+        <v>2845.8680300000001</v>
       </c>
       <c r="E153">
         <f t="shared" si="3"/>
-        <v>5.457932835857644</v>
+        <v>5.5565461340102935</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -11249,15 +13091,141 @@
         <v>16</v>
       </c>
       <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>3001</v>
+      </c>
+      <c r="D154">
+        <v>2846.3642599999998</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="3"/>
+        <v>5.4327459831160256</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>16</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>3002</v>
+      </c>
+      <c r="D155">
+        <v>2845.1263800000002</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="3"/>
+        <v>5.5137663164193027</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>16</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>3004</v>
+      </c>
+      <c r="D156">
+        <v>2846.8850699999998</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="3"/>
+        <v>5.5188364172354945</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>16</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+      <c r="C157">
+        <v>3004</v>
+      </c>
+      <c r="D157">
+        <v>2846.1680000000001</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="3"/>
+        <v>5.5454210714195327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>16</v>
+      </c>
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>3002</v>
+      </c>
+      <c r="D158">
+        <v>2847.4658599999998</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="3"/>
+        <v>5.4270761300716774</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>16</v>
+      </c>
+      <c r="B159">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>3005</v>
+      </c>
+      <c r="D159">
+        <v>2847.3014600000001</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="3"/>
+        <v>5.5385262928920724</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>16</v>
+      </c>
+      <c r="B160">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>3004</v>
+      </c>
+      <c r="D160">
+        <v>2848.5291900000002</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="3"/>
+        <v>5.457932835857644</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>16</v>
+      </c>
+      <c r="B161">
         <v>9</v>
       </c>
-      <c r="C154">
+      <c r="C161">
         <v>3002</v>
       </c>
-      <c r="D154">
+      <c r="D161">
         <v>2844.5809800000002</v>
       </c>
-      <c r="E154">
+      <c r="E161">
         <f t="shared" si="3"/>
         <v>5.5339967857058445</v>
       </c>
@@ -11265,4 +13233,1055 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF01FC1-41C7-4F53-92F8-F329B1975819}">
+  <dimension ref="A1:D65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="AD31" sqref="AD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE('30V Battery'!E2:E11)</f>
+        <v>1.5238632315290093</v>
+      </c>
+      <c r="D2">
+        <f>ABS(C2)</f>
+        <v>1.5238632315290093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE('30V Battery'!E12:E21)</f>
+        <v>0.25648343257138373</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D65" si="0">ABS(C3)</f>
+        <v>0.25648343257138373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE('30V Battery'!E22:E31)</f>
+        <v>-0.62935782796852924</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.62935782796852924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE('30V Battery'!E32:E41)</f>
+        <v>-0.25160284653719661</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.25160284653719661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE('30V Battery'!E42:E51)</f>
+        <v>-0.25439396874603709</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.25439396874603709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE('30V Battery'!E52:E61)</f>
+        <v>-0.21817149472361316</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.21817149472361316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE('30V Battery'!E62:E71)</f>
+        <v>-4.6254723827057663E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.6254723827057663E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE('30V Battery'!E72:E81)</f>
+        <v>-2.4801112282521499E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.4801112282521499E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE('30V Battery'!E82:E91)</f>
+        <v>0.11573478022988426</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.11573478022988426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE('30V Battery'!E92:E101)</f>
+        <v>-0.34216274744801523</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.34216274744801523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE('30V Battery'!E102:E111)</f>
+        <v>-0.4102371879673633</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.4102371879673633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE('30V Battery'!E112:E121)</f>
+        <v>-1.0131128714620918E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.0131128714620918E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE('30V Battery'!E122:E131)</f>
+        <v>5.3690325850534383E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>5.3690325850534383E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE('30V Battery'!E132:E141)</f>
+        <v>0.12195249839423442</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.12195249839423442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f>AVERAGE('30V Battery'!E142:E151)</f>
+        <v>-0.11254602033477065</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.11254602033477065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE('30V Battery'!E152:E161)</f>
+        <v>5.4818785921162902</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>5.4818785921162902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE('35V Battery'!E2:E11)</f>
+        <v>0.80307303944725295</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.80307303944725295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <f>AVERAGE('35V Battery'!E12:E21)</f>
+        <v>-0.3135570780705037</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.3135570780705037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE('35V Battery'!E22:E31)</f>
+        <v>-0.6135786848478394</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.6135786848478394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>35</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE('35V Battery'!E32:E41)</f>
+        <v>-0.38923963690397922</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.38923963690397922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE('35V Battery'!E42:E51)</f>
+        <v>-0.53289358384800345</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.53289358384800345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <f>AVERAGE('35V Battery'!E52:E61)</f>
+        <v>-0.28973045076043924</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.28973045076043924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <f>AVERAGE('35V Battery'!E72:E81)</f>
+        <v>-0.50304601508637226</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.50304601508637226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <f>AVERAGE('35V Battery'!E82:E91)</f>
+        <v>-0.21407852781427175</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.21407852781427175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <f>AVERAGE('35V Battery'!E92:E101)</f>
+        <v>-0.56088035914363377</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.56088035914363377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE('35V Battery'!E102:E111)</f>
+        <v>-0.37192091115988685</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.37192091115988685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE('35V Battery'!E112:E121)</f>
+        <v>-0.70196973274302865</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.70196973274302865</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <f>AVERAGE('35V Battery'!E122:E131)</f>
+        <v>1.5972143781260932E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1.5972143781260932E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <f>AVERAGE('35V Battery'!E132:E141)</f>
+        <v>-0.44498070241925031</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.44498070241925031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <f>AVERAGE('35V Battery'!E142:E151)</f>
+        <v>-0.5044866064478537</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.5044866064478537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <f>AVERAGE('35V Battery'!E152:E161)</f>
+        <v>5.1511201162796851</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>5.1511201162796851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <f>AVERAGE('40V Battery'!E2:E11)</f>
+        <v>0.20401079975951028</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.20401079975951028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <f>AVERAGE('40V Battery'!E12:E21)</f>
+        <v>-0.57023409908457634</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.57023409908457634</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <f>AVERAGE('40V Battery'!E22:E31)</f>
+        <v>-0.59043727421740777</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.59043727421740777</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <f>AVERAGE('40V Battery'!E32:E41)</f>
+        <v>-0.73475709565717917</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.73475709565717917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <f>AVERAGE('40V Battery'!E42:E51)</f>
+        <v>-0.57852671823592883</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.57852671823592883</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <f>AVERAGE('40V Battery'!E52:E61)</f>
+        <v>-0.33742791300027986</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.33742791300027986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <f>AVERAGE('40V Battery'!E62:E71)</f>
+        <v>-0.47890831124256439</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.47890831124256439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <f>AVERAGE('40V Battery'!E72:E81)</f>
+        <v>-0.29511466812059906</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.29511466812059906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <f>AVERAGE('40V Battery'!E82:E91)</f>
+        <v>-0.28008690310946988</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.28008690310946988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <f>AVERAGE('40V Battery'!E92:E101)</f>
+        <v>-0.31136437453300497</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.31136437453300497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <f>AVERAGE('40V Battery'!E102:E111)</f>
+        <v>-0.45010701458167829</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.45010701458167829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <f>AVERAGE('40V Battery'!E112:E121)</f>
+        <v>-0.49560819788137733</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.49560819788137733</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <f>AVERAGE('40V Battery'!E122:E131)</f>
+        <v>-0.28283017070242378</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.28283017070242378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <f>AVERAGE('40V Battery'!E132:E141)</f>
+        <v>-0.17202111007360354</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.17202111007360354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <f>AVERAGE('40V Battery'!E142:E151)</f>
+        <v>-0.48919868333327315</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.48919868333327315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <f>AVERAGE('40V Battery'!E152:E161)</f>
+        <v>5.6382370383737701</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>5.6382370383737701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <f>AVERAGE('45V Battery'!E2:E11)</f>
+        <v>0.13431707197365622</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.13431707197365622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>45</v>
+      </c>
+      <c r="C51">
+        <f>AVERAGE('45V Battery'!E12:E21)</f>
+        <v>-0.7955045600659334</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.7955045600659334</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>45</v>
+      </c>
+      <c r="C52">
+        <f>AVERAGE('45V Battery'!E22:E31)</f>
+        <v>-0.75639819856462809</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.75639819856462809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <f>AVERAGE('45V Battery'!E32:E41)</f>
+        <v>-0.67606121179672019</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.67606121179672019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>45</v>
+      </c>
+      <c r="C54">
+        <f>AVERAGE('45V Battery'!E42:E51)</f>
+        <v>-0.44529803261748813</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.44529803261748813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>45</v>
+      </c>
+      <c r="C55">
+        <f>AVERAGE('45V Battery'!E52:E61)</f>
+        <v>-0.46504960969339626</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.46504960969339626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>45</v>
+      </c>
+      <c r="C56">
+        <f>AVERAGE('45V Battery'!E62:E71)</f>
+        <v>-0.58222707950257657</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.58222707950257657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>45</v>
+      </c>
+      <c r="C57">
+        <f>AVERAGE('45V Battery'!E72:E81)</f>
+        <v>-0.41121770879376279</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.41121770879376279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <f>AVERAGE('45V Battery'!E82:E91)</f>
+        <v>-0.35603492362915101</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.35603492362915101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>45</v>
+      </c>
+      <c r="C59">
+        <f>AVERAGE('45V Battery'!E92:E101)</f>
+        <v>-0.44178617582407059</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.44178617582407059</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <v>45</v>
+      </c>
+      <c r="C60">
+        <f>AVERAGE('45V Battery'!E102:E111)</f>
+        <v>-0.48614659095276147</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.48614659095276147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <v>45</v>
+      </c>
+      <c r="C61">
+        <f>AVERAGE('45V Battery'!E112:E121)</f>
+        <v>-0.640193184769698</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.640193184769698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>45</v>
+      </c>
+      <c r="C62">
+        <f>AVERAGE('45V Battery'!E122:E131)</f>
+        <v>-0.33795379599367681</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0.33795379599367681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <f>AVERAGE('45V Battery'!E132:E141)</f>
+        <v>-0.55722008148618751</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0.55722008148618751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <v>45</v>
+      </c>
+      <c r="C64">
+        <f>AVERAGE('45V Battery'!E142:E151)</f>
+        <v>-0.51626959149894824</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0.51626959149894824</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>45</v>
+      </c>
+      <c r="C65">
+        <f>AVERAGE('45V Battery'!E152:E161)</f>
+        <v>5.5179863617342795</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>5.5179863617342795</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>